--- a/usefulTools/UAT Current Requirements.xlsx
+++ b/usefulTools/UAT Current Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="594">
   <si>
     <t>Result coding: 1 = Pass (full functionality with no unexpected errors), 0 = Fail (lack of required functionality or reproducible error during testing), 9 = Conditional (partial functionality, error during testing which cannot be reproduced, poor user experience or other constraints) X = Functionality which is desirable for future iterations of the system. these items are not necessary for user acceptance of this version of the system</t>
   </si>
@@ -951,6 +951,9 @@
     <t>x</t>
   </si>
   <si>
+    <t>Part of Data Extraction.  To be implemented in future milestone</t>
+  </si>
+  <si>
     <t>A user with "Subject Read-Only" or higher access to a study can search for a subject by collection ID or biospecimen ID, and view the Subject &gt; Demographic Data form for a found subject.</t>
   </si>
   <si>
@@ -1044,37 +1047,25 @@
     <t>USER EXPERIENCE:  When a subject is in context, data from the field "subject ID" should always be visible.</t>
   </si>
   <si>
-    <t>USER EXPERIENCE: When a subject is in context, a list of consented substudy names should be accessible on every page.</t>
-  </si>
-  <si>
-    <t>The list of sub-studies are visible from the parent study. The study in context is always displayed to the user.</t>
-  </si>
-  <si>
-    <t>USER EXPERIENCE: When a subject is in context, a list of associated collections and the studies they are allocated to should be accessible on every page.</t>
+    <t>USER EXPERIENCE: The "status" field should not automatically enter data</t>
+  </si>
+  <si>
+    <t>Wish List</t>
+  </si>
+  <si>
+    <t>Users are able to search patients based on field in patient, collection, biospecimen - including custom fields.</t>
+  </si>
+  <si>
+    <t>To do this, use the biocollection search, select the bio* and then your subject will be in context.  This will be further expanded in data extraction module</t>
+  </si>
+  <si>
+    <t>The "Patient" section of the database allows users to add test results against a patient</t>
+  </si>
+  <si>
+    <t>1. Log in as a user with "Subject Data Manager" access to WARTN and all its substudies. 2. Click WARTN in the list of studies under the Study &gt; Study Details tab. 3. Click the first subject in the list of subjects under the Subject &gt; Demographic Data tab. 4. Click “Study-specific Demographic Data” tab 5. Add/Edit data against he custom fields accordingly</t>
   </si>
   <si>
     <t>this is functionality we would consider useful but which is not required for acceptance of this version</t>
-  </si>
-  <si>
-    <t>USER EXPERIENCE: patient mortality readily visible, alongside date of death</t>
-  </si>
-  <si>
-    <t>USER EXPERIENCE: The "status" field should not automatically enter data</t>
-  </si>
-  <si>
-    <t>Wish List</t>
-  </si>
-  <si>
-    <t>Users are able to search patients based on field in patient, collection, biospecimen - including custom fields.</t>
-  </si>
-  <si>
-    <t>To do this, use the biocollection search, select the bio* and then your subject will be in context.  This will be further expanded in data extraction module</t>
-  </si>
-  <si>
-    <t>The "Patient" section of the database allows users to add test results against a patient</t>
-  </si>
-  <si>
-    <t>1. Log in as a user with "Subject Data Manager" access to WARTN and all its substudies. 2. Click WARTN in the list of studies under the Study &gt; Study Details tab. 3. Click the first subject in the list of subjects under the Subject &gt; Demographic Data tab. 4. Click “Study-specific Demographic Data” tab 5. Add/Edit data against he custom fields accordingly</t>
   </si>
   <si>
     <t>ability to add treatment results against a patient</t>
@@ -2345,10 +2336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R289"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100">
-      <selection activeCell="E63" activeCellId="0" pane="topLeft" sqref="E63"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A106" view="normal" windowProtection="false" workbookViewId="0" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100">
+      <selection activeCell="E114" activeCellId="0" pane="topLeft" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5512,21 +5503,21 @@
         <v>310</v>
       </c>
       <c r="M101" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="137.25" outlineLevel="0" r="102">
       <c r="B102" s="25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
@@ -5540,12 +5531,12 @@
         <v>1</v>
       </c>
       <c r="M102" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
       <c r="B103" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
@@ -5554,16 +5545,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="115.5" outlineLevel="0" r="104">
       <c r="B104" s="25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F104" s="27" t="s">
         <v>18</v>
@@ -5584,16 +5575,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.75" outlineLevel="0" r="105">
       <c r="B105" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F105" s="27" t="s">
         <v>18</v>
@@ -5614,16 +5605,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="88.5" outlineLevel="0" r="106">
       <c r="B106" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F106" s="27" t="s">
         <v>18</v>
@@ -5644,16 +5635,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="107">
       <c r="B107" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F107" s="27" t="s">
         <v>18</v>
@@ -5674,16 +5665,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.75" outlineLevel="0" r="108">
       <c r="B108" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F108" s="27" t="s">
         <v>18</v>
@@ -5704,7 +5695,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
       <c r="B109" s="23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
@@ -5714,7 +5705,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="110" s="44">
       <c r="A110" s="48"/>
       <c r="B110" s="49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C110" s="50" t="s">
         <v>238</v>
@@ -5745,7 +5736,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="111" s="44">
       <c r="A111" s="48"/>
       <c r="B111" s="49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C111" s="50" t="s">
         <v>238</v>
@@ -5776,7 +5767,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="112" s="44">
       <c r="A112" s="48"/>
       <c r="B112" s="49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C112" s="50" t="s">
         <v>238</v>
@@ -5807,7 +5798,7 @@
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="113" s="44">
       <c r="A113" s="48"/>
       <c r="B113" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C113" s="50" t="s">
         <v>238</v>
@@ -5835,10 +5826,10 @@
       </c>
       <c r="M113" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="52" outlineLevel="0" r="114" s="44">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.45" outlineLevel="0" r="114" s="44">
       <c r="A114" s="48"/>
       <c r="B114" s="49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C114" s="50" t="s">
         <v>238</v>
@@ -5849,295 +5840,254 @@
       <c r="E114" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F114" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H114" s="52" t="n">
-        <v>9</v>
-      </c>
-      <c r="I114" s="42" t="s">
-        <v>343</v>
-      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="42"/>
       <c r="J114" s="40"/>
       <c r="K114" s="40"/>
-      <c r="L114" s="52" t="s">
-        <v>66</v>
+      <c r="L114" s="52" t="n">
+        <v>1</v>
       </c>
       <c r="M114" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="115" s="44">
-      <c r="A115" s="48"/>
-      <c r="B115" s="49" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
+      <c r="B115" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C115" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D115" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E115" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
-      <c r="H115" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I115" s="36" t="s">
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="116">
+      <c r="B116" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="J115" s="40"/>
-      <c r="K115" s="40"/>
-      <c r="L115" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M115" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="43.5" outlineLevel="0" r="116" s="44">
-      <c r="A116" s="48"/>
-      <c r="B116" s="49" t="s">
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D116" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E116" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I116" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J116" s="40"/>
-      <c r="K116" s="40"/>
-      <c r="L116" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M116" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.45" outlineLevel="0" r="117" s="44">
-      <c r="A117" s="48"/>
-      <c r="B117" s="49" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="104" outlineLevel="0" r="117" s="55">
+      <c r="A117" s="39"/>
+      <c r="B117" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D117" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E117" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="42"/>
+      <c r="C117" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="51" t="n">
+        <v>41338.5868055556</v>
+      </c>
+      <c r="H117" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" s="36" t="s">
+        <v>349</v>
+      </c>
       <c r="J117" s="40"/>
       <c r="K117" s="40"/>
       <c r="L117" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="M117" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="118">
-      <c r="B118" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="119">
-      <c r="B119" s="53" t="s">
+      <c r="M117" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" s="30" t="s">
+      <c r="N117" s="54"/>
+      <c r="O117" s="54"/>
+      <c r="P117" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="118" s="44">
+      <c r="A118" s="39"/>
+      <c r="B118" s="53" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="104" outlineLevel="0" r="120" s="55">
-      <c r="A120" s="39"/>
-      <c r="B120" s="53" t="s">
+      <c r="C118" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="51" t="n">
+        <v>41338.6611111111</v>
+      </c>
+      <c r="H118" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="51" t="n">
-        <v>41338.5868055556</v>
-      </c>
-      <c r="H120" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="N120" s="54"/>
-      <c r="O120" s="54"/>
-      <c r="P120" s="54"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="121" s="44">
-      <c r="A121" s="39"/>
-      <c r="B121" s="53" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="119">
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="120">
+      <c r="B120" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="121">
+      <c r="B121" s="23"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
+      <c r="B122" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="51" t="n">
-        <v>41338.6611111111</v>
-      </c>
-      <c r="H121" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J121" s="40"/>
-      <c r="K121" s="40"/>
-      <c r="L121" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" s="36" t="s">
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="123">
+      <c r="B123" s="25" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="122">
-      <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="45"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="123">
-      <c r="B123" s="23" t="s">
+      <c r="C123" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="124">
-      <c r="B124" s="23"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
+      <c r="D123" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="47" t="n">
+        <v>41338.5916666667</v>
+      </c>
+      <c r="H123" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" s="30"/>
+      <c r="J123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="47" t="n">
+        <v>41338.5347222222</v>
+      </c>
+      <c r="L123" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="124">
+      <c r="B124" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="47" t="n">
+        <v>41338.5916666667</v>
+      </c>
+      <c r="H124" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" s="30"/>
+      <c r="J124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" s="47" t="n">
+        <v>41338.5347222222</v>
+      </c>
+      <c r="L124" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" s="30" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
       <c r="B125" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F125" s="46"/>
       <c r="G125" s="46"/>
       <c r="J125" s="46"/>
       <c r="K125" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="126">
-      <c r="B126" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D126" s="26" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
+      <c r="B126" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="127">
+      <c r="B127" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="E126" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H126" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" s="30"/>
-      <c r="J126" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="L126" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="127">
-      <c r="B127" s="25" t="s">
+      <c r="C127" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C127" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>267</v>
-      </c>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
       <c r="F127" s="27" t="s">
         <v>18</v>
       </c>
@@ -6148,22 +6098,16 @@
         <v>1</v>
       </c>
       <c r="I127" s="30"/>
-      <c r="J127" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
       <c r="L127" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M127" s="30" t="s">
-        <v>268</v>
-      </c>
+      <c r="M127" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
       <c r="B128" s="23" t="s">
-        <v>362</v>
+        <v>98</v>
       </c>
       <c r="F128" s="46"/>
       <c r="G128" s="46"/>
@@ -6172,42 +6116,25 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
       <c r="B129" s="23" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="F129" s="46"/>
       <c r="G129" s="46"/>
       <c r="J129" s="46"/>
       <c r="K129" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="130">
-      <c r="B130" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H130" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" s="30"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" s="30"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
+      <c r="B130" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="46"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
       <c r="B131" s="23" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="F131" s="46"/>
       <c r="G131" s="46"/>
@@ -6216,46 +6143,101 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
       <c r="B132" s="23" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="F132" s="46"/>
       <c r="G132" s="46"/>
       <c r="J132" s="46"/>
       <c r="K132" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
-      <c r="B133" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="134">
-      <c r="B134" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="J134" s="46"/>
-      <c r="K134" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
-      <c r="B135" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="J135" s="46"/>
-      <c r="K135" s="46"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="133">
+      <c r="B133" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M133" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="134">
+      <c r="B134" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M134" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="135">
+      <c r="B135" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="47" t="n">
+        <v>41338.5916666667</v>
+      </c>
+      <c r="H135" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" s="30"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="136">
       <c r="B136" s="25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D136" s="26" t="s">
         <v>198</v>
@@ -6263,25 +6245,29 @@
       <c r="E136" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="21"/>
+      <c r="F136" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="47" t="n">
+        <v>41338.5916666667</v>
+      </c>
+      <c r="H136" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I136" s="30"/>
       <c r="J136" s="27"/>
       <c r="K136" s="27"/>
-      <c r="L136" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M136" s="30" t="s">
-        <v>367</v>
-      </c>
+      <c r="L136" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="137">
       <c r="B137" s="25" t="s">
         <v>368</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D137" s="26" t="s">
         <v>198</v>
@@ -6289,25 +6275,29 @@
       <c r="E137" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="21"/>
+      <c r="F137" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="47" t="n">
+        <v>41338.5916666667</v>
+      </c>
+      <c r="H137" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I137" s="30"/>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
-      <c r="L137" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M137" s="30" t="s">
-        <v>367</v>
-      </c>
+      <c r="L137" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="138">
       <c r="B138" s="25" t="s">
         <v>369</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D138" s="26" t="s">
         <v>198</v>
@@ -6337,7 +6327,7 @@
         <v>370</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D139" s="26" t="s">
         <v>198</v>
@@ -6367,7 +6357,7 @@
         <v>371</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D140" s="26" t="s">
         <v>198</v>
@@ -6384,7 +6374,9 @@
       <c r="H140" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I140" s="30"/>
+      <c r="I140" s="30" t="s">
+        <v>372</v>
+      </c>
       <c r="J140" s="27"/>
       <c r="K140" s="27"/>
       <c r="L140" s="21" t="n">
@@ -6394,10 +6386,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="141">
       <c r="B141" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D141" s="26" t="s">
         <v>198</v>
@@ -6409,7 +6401,7 @@
         <v>18</v>
       </c>
       <c r="G141" s="47" t="n">
-        <v>41338.5916666667</v>
+        <v>41338.6</v>
       </c>
       <c r="H141" s="21" t="n">
         <v>1</v>
@@ -6424,10 +6416,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="142">
       <c r="B142" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D142" s="26" t="s">
         <v>198</v>
@@ -6439,7 +6431,7 @@
         <v>18</v>
       </c>
       <c r="G142" s="47" t="n">
-        <v>41338.5916666667</v>
+        <v>41338.6</v>
       </c>
       <c r="H142" s="21" t="n">
         <v>1</v>
@@ -6454,10 +6446,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="143">
       <c r="B143" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D143" s="26" t="s">
         <v>198</v>
@@ -6469,15 +6461,17 @@
         <v>18</v>
       </c>
       <c r="G143" s="47" t="n">
-        <v>41338.5916666667</v>
+        <v>41338.6</v>
       </c>
       <c r="H143" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I143" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="J143" s="27"/>
+      <c r="I143" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="K143" s="27"/>
       <c r="L143" s="21" t="n">
         <v>1</v>
@@ -6486,10 +6480,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="144">
       <c r="B144" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D144" s="26" t="s">
         <v>198</v>
@@ -6516,10 +6510,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="145">
       <c r="B145" s="25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D145" s="26" t="s">
         <v>198</v>
@@ -6536,7 +6530,6 @@
       <c r="H145" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I145" s="30"/>
       <c r="J145" s="27"/>
       <c r="K145" s="27"/>
       <c r="L145" s="21" t="n">
@@ -6546,10 +6539,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="146">
       <c r="B146" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D146" s="26" t="s">
         <v>198</v>
@@ -6567,11 +6560,9 @@
         <v>1</v>
       </c>
       <c r="I146" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>379</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="J146" s="27"/>
       <c r="K146" s="27"/>
       <c r="L146" s="21" t="n">
         <v>1</v>
@@ -6580,10 +6571,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="147">
       <c r="B147" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D147" s="26" t="s">
         <v>198</v>
@@ -6610,10 +6601,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="148">
       <c r="B148" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D148" s="26" t="s">
         <v>198</v>
@@ -6639,10 +6630,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="149">
       <c r="B149" s="25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D149" s="26" t="s">
         <v>198</v>
@@ -6659,8 +6650,8 @@
       <c r="H149" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I149" s="56" t="s">
-        <v>383</v>
+      <c r="I149" s="30" t="s">
+        <v>384</v>
       </c>
       <c r="J149" s="27"/>
       <c r="K149" s="27"/>
@@ -6671,10 +6662,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="150">
       <c r="B150" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D150" s="26" t="s">
         <v>198</v>
@@ -6701,10 +6692,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="151">
       <c r="B151" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D151" s="26" t="s">
         <v>198</v>
@@ -6716,11 +6707,12 @@
         <v>18</v>
       </c>
       <c r="G151" s="47" t="n">
-        <v>41338.6</v>
+        <v>41338.6041666667</v>
       </c>
       <c r="H151" s="21" t="n">
         <v>1</v>
       </c>
+      <c r="I151" s="30"/>
       <c r="J151" s="27"/>
       <c r="K151" s="27"/>
       <c r="L151" s="21" t="n">
@@ -6728,31 +6720,17 @@
       </c>
       <c r="M151" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="152">
       <c r="B152" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F152" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" s="47" t="n">
-        <v>41338.6</v>
-      </c>
-      <c r="H152" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" s="30" t="s">
         <v>387</v>
       </c>
+      <c r="C152" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="30"/>
       <c r="J152" s="27"/>
       <c r="K152" s="27"/>
       <c r="L152" s="21" t="n">
@@ -6760,104 +6738,105 @@
       </c>
       <c r="M152" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="153">
-      <c r="B153" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E153" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F153" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" s="47" t="n">
-        <v>41338.6</v>
-      </c>
-      <c r="H153" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" s="30"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="153">
+      <c r="B153" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="30" t="s">
+        <v>390</v>
+      </c>
       <c r="J153" s="27"/>
       <c r="K153" s="27"/>
-      <c r="L153" s="21" t="n">
-        <v>1</v>
+      <c r="L153" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="M153" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="154">
-      <c r="B154" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C154" s="26" t="s">
-        <v>366</v>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="154">
+      <c r="B154" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>238</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" s="47" t="n">
-        <v>41338.6041666667</v>
-      </c>
-      <c r="H154" s="21" t="n">
-        <v>1</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="21"/>
       <c r="I154" s="30"/>
       <c r="J154" s="27"/>
       <c r="K154" s="27"/>
-      <c r="L154" s="21" t="n">
-        <v>1</v>
+      <c r="L154" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="M154" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="155">
-      <c r="B155" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="30"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="156">
-      <c r="B156" s="2" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="155" s="44">
+      <c r="A155" s="48"/>
+      <c r="B155" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="30" t="s">
+      <c r="C155" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="52"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M156" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="157">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.5" outlineLevel="0" r="156" s="44">
+      <c r="A156" s="48"/>
+      <c r="B156" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="C156" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="J156" s="40"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="157" s="44">
+      <c r="A157" s="48"/>
       <c r="B157" s="57" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C157" s="50" t="s">
         <v>238</v>
@@ -6868,127 +6847,132 @@
       <c r="E157" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="30"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="21" t="s">
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="40"/>
+      <c r="L157" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="158">
+      <c r="B158" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="159">
+      <c r="B159" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M157" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="158" s="44">
-      <c r="A158" s="48"/>
-      <c r="B158" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="C158" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F158" s="40"/>
-      <c r="G158" s="40"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="40"/>
-      <c r="K158" s="40"/>
-      <c r="L158" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" s="42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.5" outlineLevel="0" r="159" s="44">
-      <c r="A159" s="48"/>
-      <c r="B159" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="C159" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F159" s="40"/>
-      <c r="G159" s="40"/>
-      <c r="H159" s="52"/>
-      <c r="I159" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="J159" s="40"/>
-      <c r="K159" s="40"/>
-      <c r="L159" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="160" s="44">
-      <c r="A160" s="48"/>
-      <c r="B160" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="C160" s="50" t="s">
-        <v>238</v>
+      <c r="M159" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="84" outlineLevel="0" r="160">
+      <c r="B160" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F160" s="40"/>
-      <c r="G160" s="40"/>
-      <c r="H160" s="52"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="40"/>
-      <c r="K160" s="40"/>
-      <c r="L160" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="161">
-      <c r="B161" s="23" t="s">
-        <v>316</v>
+        <v>404</v>
+      </c>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="J160" s="27"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M160" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="161">
+      <c r="B161" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>408</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="27"/>
       <c r="H161" s="21"/>
-      <c r="I161" s="30"/>
+      <c r="I161" s="36" t="s">
+        <v>349</v>
+      </c>
       <c r="J161" s="27"/>
       <c r="K161" s="27"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="30"/>
+      <c r="L161" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M161" s="36" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="162">
       <c r="B162" s="53" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
       <c r="H162" s="21"/>
       <c r="I162" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J162" s="27"/>
       <c r="K162" s="27"/>
@@ -6996,27 +6980,27 @@
         <v>66</v>
       </c>
       <c r="M162" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="84" outlineLevel="0" r="163">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="163">
       <c r="B163" s="53" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="27"/>
       <c r="H163" s="21"/>
       <c r="I163" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J163" s="27"/>
       <c r="K163" s="27"/>
@@ -7024,110 +7008,79 @@
         <v>66</v>
       </c>
       <c r="M163" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="164">
-      <c r="B164" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>411</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
+      <c r="B164" s="23" t="s">
+        <v>344</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="27"/>
       <c r="H164" s="21"/>
-      <c r="I164" s="36" t="s">
-        <v>345</v>
-      </c>
+      <c r="I164" s="30"/>
       <c r="J164" s="27"/>
       <c r="K164" s="27"/>
-      <c r="L164" s="21" t="s">
+      <c r="L164" s="21"/>
+      <c r="M164" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="78.75" outlineLevel="0" r="165" s="44">
+      <c r="A165" s="39"/>
+      <c r="B165" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="40"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="J165" s="40"/>
+      <c r="K165" s="40"/>
+      <c r="L165" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="M164" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="165">
-      <c r="B165" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J165" s="27"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="M165" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="166">
-      <c r="B166" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="D166" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="166">
+      <c r="A166" s="15"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="45"/>
+      <c r="K166" s="45"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="22"/>
+      <c r="Q166" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="167">
+      <c r="B167" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="E166" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="21"/>
-      <c r="I166" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M166" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="167">
-      <c r="B167" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="30"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="78.75" outlineLevel="0" r="168" s="44">
+      <c r="F167" s="46"/>
+      <c r="G167" s="46"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="168" s="58">
       <c r="A168" s="39"/>
       <c r="B168" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>36</v>
@@ -7136,9 +7089,9 @@
       <c r="E168" s="33"/>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
-      <c r="H168" s="35"/>
+      <c r="H168" s="52"/>
       <c r="I168" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J168" s="40"/>
       <c r="K168" s="40"/>
@@ -7146,93 +7099,132 @@
         <v>66</v>
       </c>
       <c r="M168" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="169">
-      <c r="A169" s="15"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="45"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="45"/>
-      <c r="K169" s="45"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="20"/>
-      <c r="N169" s="22"/>
-      <c r="O169" s="22"/>
-      <c r="P169" s="22"/>
-      <c r="Q169" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="170">
-      <c r="B170" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="169" s="58">
+      <c r="A169" s="39"/>
+      <c r="B169" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="52"/>
+      <c r="I169" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="J169" s="40"/>
+      <c r="K169" s="40"/>
+      <c r="L169" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M169" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="170">
+      <c r="B170" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="F170" s="46"/>
-      <c r="G170" s="46"/>
-      <c r="J170" s="46"/>
-      <c r="K170" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="171" s="58">
-      <c r="A171" s="39"/>
-      <c r="B171" s="53" t="s">
+      <c r="C170" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="C171" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="40"/>
-      <c r="G171" s="40"/>
-      <c r="H171" s="52"/>
-      <c r="I171" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J171" s="40"/>
-      <c r="K171" s="40"/>
-      <c r="L171" s="52" t="s">
+      <c r="D170" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="47" t="n">
+        <v>41338.6131944444</v>
+      </c>
+      <c r="H170" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J170" s="27"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="171">
+      <c r="B171" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M171" s="36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="172" s="58">
-      <c r="A172" s="39"/>
-      <c r="B172" s="53" t="s">
-        <v>423</v>
-      </c>
-      <c r="C172" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="40"/>
-      <c r="G172" s="40"/>
-      <c r="H172" s="52"/>
-      <c r="I172" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="J172" s="40"/>
-      <c r="K172" s="40"/>
-      <c r="L172" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M172" s="36" t="s">
-        <v>345</v>
-      </c>
+      <c r="M171" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="172">
+      <c r="B172" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="47" t="n">
+        <v>41338.6</v>
+      </c>
+      <c r="H172" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="J172" s="27"/>
+      <c r="K172" s="27"/>
+      <c r="L172" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="173">
       <c r="B173" s="26" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D173" s="26" t="s">
         <v>198</v>
@@ -7244,14 +7236,12 @@
         <v>18</v>
       </c>
       <c r="G173" s="47" t="n">
-        <v>41338.6131944444</v>
+        <v>41338.6138888889</v>
       </c>
       <c r="H173" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I173" s="30" t="s">
-        <v>426</v>
-      </c>
+      <c r="I173" s="30"/>
       <c r="J173" s="27"/>
       <c r="K173" s="27"/>
       <c r="L173" s="21" t="n">
@@ -7261,10 +7251,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="174">
       <c r="B174" s="26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D174" s="26" t="s">
         <v>198</v>
@@ -7272,27 +7262,29 @@
       <c r="E174" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="30" t="s">
-        <v>398</v>
-      </c>
+      <c r="F174" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="47" t="n">
+        <v>41338.6138888889</v>
+      </c>
+      <c r="H174" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" s="30"/>
       <c r="J174" s="27"/>
       <c r="K174" s="27"/>
-      <c r="L174" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M174" s="30" t="s">
-        <v>428</v>
-      </c>
+      <c r="L174" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="175">
       <c r="B175" s="26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>198</v>
@@ -7304,14 +7296,12 @@
         <v>18</v>
       </c>
       <c r="G175" s="47" t="n">
-        <v>41338.6</v>
+        <v>41338.6138888889</v>
       </c>
       <c r="H175" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I175" s="30" t="s">
-        <v>430</v>
-      </c>
+      <c r="I175" s="30"/>
       <c r="J175" s="27"/>
       <c r="K175" s="27"/>
       <c r="L175" s="21" t="n">
@@ -7324,7 +7314,7 @@
         <v>431</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>198</v>
@@ -7354,7 +7344,7 @@
         <v>432</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D177" s="26" t="s">
         <v>198</v>
@@ -7384,7 +7374,7 @@
         <v>433</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D178" s="26" t="s">
         <v>198</v>
@@ -7414,7 +7404,7 @@
         <v>434</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D179" s="26" t="s">
         <v>198</v>
@@ -7444,7 +7434,7 @@
         <v>435</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D180" s="26" t="s">
         <v>198</v>
@@ -7474,7 +7464,7 @@
         <v>436</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>198</v>
@@ -7491,7 +7481,9 @@
       <c r="H181" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I181" s="30"/>
+      <c r="I181" s="30" t="s">
+        <v>437</v>
+      </c>
       <c r="J181" s="27"/>
       <c r="K181" s="27"/>
       <c r="L181" s="21" t="n">
@@ -7501,10 +7493,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="182">
       <c r="B182" s="26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D182" s="26" t="s">
         <v>198</v>
@@ -7521,7 +7513,9 @@
       <c r="H182" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I182" s="30"/>
+      <c r="I182" s="30" t="s">
+        <v>439</v>
+      </c>
       <c r="J182" s="27"/>
       <c r="K182" s="27"/>
       <c r="L182" s="21" t="n">
@@ -7531,10 +7525,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="183">
       <c r="B183" s="26" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>198</v>
@@ -7551,7 +7545,9 @@
       <c r="H183" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I183" s="30"/>
+      <c r="I183" s="30" t="s">
+        <v>441</v>
+      </c>
       <c r="J183" s="27"/>
       <c r="K183" s="27"/>
       <c r="L183" s="21" t="n">
@@ -7560,62 +7556,51 @@
       <c r="M183" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="184">
-      <c r="B184" s="26" t="s">
-        <v>439</v>
+      <c r="B184" s="25" t="s">
+        <v>442</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F184" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H184" s="21" t="n">
-        <v>1</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E184" s="9"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="21"/>
       <c r="I184" s="30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J184" s="27"/>
       <c r="K184" s="27"/>
       <c r="L184" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M184" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="185">
-      <c r="B185" s="26" t="s">
-        <v>441</v>
+      <c r="M184" s="30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="185">
+      <c r="B185" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E185" s="26" t="s">
-        <v>199</v>
+        <v>422</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="F185" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="47" t="n">
-        <v>41338.6138888889</v>
+        <v>41338.6194444444</v>
       </c>
       <c r="H185" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I185" s="30" t="s">
-        <v>442</v>
-      </c>
+      <c r="I185" s="30"/>
       <c r="J185" s="27"/>
       <c r="K185" s="27"/>
       <c r="L185" s="21" t="n">
@@ -7623,31 +7608,20 @@
       </c>
       <c r="M185" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="186">
-      <c r="B186" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>199</v>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="186">
+      <c r="B186" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="47" t="n">
-        <v>41338.6138888889</v>
+        <v>41338.6194444444</v>
       </c>
       <c r="H186" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I186" s="30" t="s">
-        <v>444</v>
-      </c>
+      <c r="I186" s="30"/>
       <c r="J186" s="27"/>
       <c r="K186" s="27"/>
       <c r="L186" s="21" t="n">
@@ -7655,83 +7629,104 @@
       </c>
       <c r="M186" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="187">
-      <c r="B187" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="C187" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E187" s="9"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="30" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="187">
+      <c r="B187" s="57" t="s">
         <v>447</v>
       </c>
+      <c r="C187" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="47" t="n">
+        <v>41338.6194444444</v>
+      </c>
+      <c r="H187" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" s="30"/>
       <c r="J187" s="27"/>
       <c r="K187" s="27"/>
       <c r="L187" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M187" s="30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="188">
-      <c r="B188" s="2" t="s">
+      <c r="M187" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="59.25" outlineLevel="0" r="188" s="44">
+      <c r="A188" s="48"/>
+      <c r="B188" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="C188" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F188" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" s="47" t="n">
+      <c r="C188" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F188" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="51" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H188" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" s="30"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="189">
-      <c r="B189" s="2" t="s">
+      <c r="H188" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" s="42"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="40"/>
+      <c r="L188" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="189" s="44">
+      <c r="A189" s="48"/>
+      <c r="B189" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="F189" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" s="47" t="n">
+      <c r="C189" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F189" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="51" t="n">
         <v>41338.6194444444</v>
       </c>
-      <c r="H189" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" s="30"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="190">
+      <c r="H189" s="52" t="n">
+        <v>9</v>
+      </c>
+      <c r="I189" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="J189" s="40"/>
+      <c r="K189" s="40"/>
+      <c r="L189" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="190" s="44">
+      <c r="A190" s="48"/>
       <c r="B190" s="57" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C190" s="50" t="s">
         <v>238</v>
@@ -7742,27 +7737,27 @@
       <c r="E190" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F190" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" s="47" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H190" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" s="30"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="27"/>
-      <c r="L190" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="59.25" outlineLevel="0" r="191" s="44">
+      <c r="F190" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="51" t="n">
+        <v>41338.6263888889</v>
+      </c>
+      <c r="H190" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" s="42"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="46.5" outlineLevel="0" r="191" s="44">
       <c r="A191" s="48"/>
       <c r="B191" s="57" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C191" s="50" t="s">
         <v>238</v>
@@ -7777,7 +7772,7 @@
         <v>18</v>
       </c>
       <c r="G191" s="51" t="n">
-        <v>41338.6194444444</v>
+        <v>41338.6263888889</v>
       </c>
       <c r="H191" s="52" t="n">
         <v>1</v>
@@ -7790,10 +7785,10 @@
       </c>
       <c r="M191" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="192" s="44">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54.75" outlineLevel="0" r="192" s="44">
       <c r="A192" s="48"/>
       <c r="B192" s="57" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C192" s="50" t="s">
         <v>238</v>
@@ -7808,25 +7803,30 @@
         <v>18</v>
       </c>
       <c r="G192" s="51" t="n">
-        <v>41338.6194444444</v>
+        <v>41338.6263888889</v>
       </c>
       <c r="H192" s="52" t="n">
         <v>9</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J192" s="40"/>
       <c r="K192" s="40"/>
       <c r="L192" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="M192" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="193" s="44">
+      <c r="M192" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="N192" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="193" s="44">
       <c r="A193" s="48"/>
       <c r="B193" s="57" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C193" s="50" t="s">
         <v>238</v>
@@ -7837,15 +7837,9 @@
       <c r="E193" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F193" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" s="51" t="n">
-        <v>41338.6263888889</v>
-      </c>
-      <c r="H193" s="52" t="n">
-        <v>1</v>
-      </c>
+      <c r="F193" s="40"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="52"/>
       <c r="I193" s="42"/>
       <c r="J193" s="40"/>
       <c r="K193" s="40"/>
@@ -7854,10 +7848,10 @@
       </c>
       <c r="M193" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="46.5" outlineLevel="0" r="194" s="44">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="194" s="44">
       <c r="A194" s="48"/>
       <c r="B194" s="57" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C194" s="50" t="s">
         <v>238</v>
@@ -7872,7 +7866,7 @@
         <v>18</v>
       </c>
       <c r="G194" s="51" t="n">
-        <v>41338.6263888889</v>
+        <v>41338.6298611111</v>
       </c>
       <c r="H194" s="52" t="n">
         <v>1</v>
@@ -7885,20 +7879,14 @@
       </c>
       <c r="M194" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54.75" outlineLevel="0" r="195" s="44">
-      <c r="A195" s="48"/>
-      <c r="B195" s="57" t="s">
-        <v>456</v>
-      </c>
-      <c r="C195" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E195" s="26" t="s">
-        <v>240</v>
-      </c>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="195" s="44">
+      <c r="A195" s="39"/>
+      <c r="B195" s="53" t="s">
+        <v>458</v>
+      </c>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
       <c r="F195" s="40" t="s">
         <v>18</v>
       </c>
@@ -7908,209 +7896,187 @@
       <c r="H195" s="52" t="n">
         <v>9</v>
       </c>
-      <c r="I195" s="42" t="s">
-        <v>457</v>
+      <c r="I195" s="36" t="s">
+        <v>459</v>
       </c>
       <c r="J195" s="40"/>
       <c r="K195" s="40"/>
-      <c r="L195" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="N195" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="196" s="44">
-      <c r="A196" s="48"/>
-      <c r="B196" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="C196" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D196" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F196" s="40"/>
-      <c r="G196" s="40"/>
-      <c r="H196" s="52"/>
-      <c r="I196" s="42"/>
-      <c r="J196" s="40"/>
-      <c r="K196" s="40"/>
-      <c r="L196" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="197" s="44">
-      <c r="A197" s="48"/>
-      <c r="B197" s="57" t="s">
+      <c r="L195" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M195" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="196">
+      <c r="A196" s="15"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="45"/>
+      <c r="K196" s="45"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="22"/>
+      <c r="P196" s="22"/>
+      <c r="Q196" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="197">
+      <c r="B197" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="C197" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D197" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E197" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F197" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="51" t="n">
-        <v>41338.6298611111</v>
-      </c>
-      <c r="H197" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" s="42"/>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
-      <c r="L197" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="198" s="44">
-      <c r="A198" s="39"/>
-      <c r="B198" s="53" t="s">
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
+      <c r="L197" s="21"/>
+      <c r="M197" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="198" s="44">
+      <c r="A198" s="48"/>
+      <c r="B198" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
+      <c r="C198" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D198" s="60"/>
+      <c r="E198" s="60"/>
       <c r="F198" s="40" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G198" s="51" t="n">
-        <v>41338.6263888889</v>
+        <v>4813.59444444445</v>
       </c>
       <c r="H198" s="52" t="n">
-        <v>9</v>
-      </c>
-      <c r="I198" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="J198" s="40"/>
-      <c r="K198" s="40"/>
-      <c r="L198" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M198" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="199">
-      <c r="A199" s="15"/>
-      <c r="B199" s="16"/>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="45"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="20"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="45"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="20"/>
-      <c r="N199" s="22"/>
-      <c r="O199" s="22"/>
-      <c r="P199" s="22"/>
-      <c r="Q199" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="200">
-      <c r="B200" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="21"/>
-      <c r="I200" s="30"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="21"/>
-      <c r="M200" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="201" s="44">
-      <c r="A201" s="48"/>
-      <c r="B201" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C201" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I198" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J198" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G201" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H201" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="J201" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K201" s="51" t="inlineStr">
+      <c r="K198" s="51" t="inlineStr">
         <f aca="true">NOW()</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L201" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" s="42" t="s">
+      <c r="L198" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" s="42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="202" s="44">
-      <c r="A202" s="48"/>
-      <c r="B202" s="57" t="s">
-        <v>466</v>
-      </c>
-      <c r="C202" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D202" s="60"/>
-      <c r="E202" s="60"/>
-      <c r="F202" s="40" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="199" s="44">
+      <c r="A199" s="48"/>
+      <c r="B199" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="C199" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D199" s="60"/>
+      <c r="E199" s="60"/>
+      <c r="F199" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G202" s="51" t="n">
+      <c r="G199" s="51" t="n">
         <v>4813.59444444445</v>
       </c>
-      <c r="H202" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" s="42"/>
-      <c r="J202" s="40" t="s">
+      <c r="H199" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" s="42"/>
+      <c r="J199" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K202" s="51" t="inlineStr">
+      <c r="K199" s="51" t="inlineStr">
         <f aca="true">NOW()</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L202" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" s="42"/>
+      <c r="L199" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="200">
+      <c r="B200" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" s="51" t="n">
+        <v>4813.59444444445</v>
+      </c>
+      <c r="H200" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" s="30"/>
+      <c r="J200" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K200" s="47" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L200" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="201">
+      <c r="B201" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F201" s="27"/>
+      <c r="G201" s="51" t="n">
+        <v>4813.59444444445</v>
+      </c>
+      <c r="H201" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I201" s="30"/>
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M201" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="202">
+      <c r="B202" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F202" s="27"/>
+      <c r="G202" s="51" t="n">
+        <v>4813.59444444445</v>
+      </c>
+      <c r="H202" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I202" s="30"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M202" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="203">
       <c r="B203" s="2" t="s">
@@ -8122,10 +8088,12 @@
       <c r="G203" s="51" t="n">
         <v>4813.59444444445</v>
       </c>
-      <c r="H203" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" s="30"/>
+      <c r="H203" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I203" s="30" t="s">
+        <v>205</v>
+      </c>
       <c r="J203" s="27" t="s">
         <v>30</v>
       </c>
@@ -8135,52 +8103,76 @@
           <t/>
         </is>
       </c>
-      <c r="L203" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="204">
-      <c r="B204" s="2" t="s">
+      <c r="L203" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M203" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N203" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="37.3" outlineLevel="0" r="204" s="44">
+      <c r="A204" s="48"/>
+      <c r="B204" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="F204" s="27"/>
+      <c r="C204" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D204" s="60"/>
+      <c r="E204" s="60"/>
+      <c r="F204" s="40"/>
       <c r="G204" s="51" t="n">
         <v>4813.59444444445</v>
       </c>
-      <c r="H204" s="21" t="s">
+      <c r="H204" s="52"/>
+      <c r="I204" s="42"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="40"/>
+      <c r="L204" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I204" s="30"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M204" s="30"/>
+      <c r="M204" s="42" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="205">
       <c r="B205" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F205" s="27"/>
+        <v>470</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G205" s="51" t="n">
         <v>4813.59444444445</v>
       </c>
-      <c r="H205" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I205" s="30"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M205" s="30"/>
+      <c r="H205" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="J205" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K205" s="47" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L205" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" s="30" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="206">
       <c r="B206" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F206" s="27" t="s">
         <v>30</v>
@@ -8188,11 +8180,11 @@
       <c r="G206" s="51" t="n">
         <v>4813.59444444445</v>
       </c>
-      <c r="H206" s="21" t="s">
-        <v>66</v>
+      <c r="H206" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I206" s="30" t="s">
-        <v>205</v>
+        <v>473</v>
       </c>
       <c r="J206" s="27" t="s">
         <v>30</v>
@@ -8203,44 +8195,56 @@
           <t/>
         </is>
       </c>
-      <c r="L206" s="21" t="s">
-        <v>66</v>
+      <c r="L206" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M206" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="N206" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="37.3" outlineLevel="0" r="207" s="44">
-      <c r="A207" s="48"/>
-      <c r="B207" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="C207" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D207" s="60"/>
-      <c r="E207" s="60"/>
-      <c r="F207" s="40"/>
+        <v>473</v>
+      </c>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.95" outlineLevel="0" r="207">
+      <c r="B207" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G207" s="51" t="n">
         <v>4813.59444444445</v>
       </c>
-      <c r="H207" s="52"/>
-      <c r="I207" s="42"/>
-      <c r="J207" s="40"/>
-      <c r="K207" s="40"/>
-      <c r="L207" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M207" s="42" t="s">
-        <v>472</v>
+      <c r="H207" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I207" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="J207" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K207" s="47" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L207" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M207" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="N207" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="208">
       <c r="B208" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>30</v>
@@ -8252,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J208" s="27" t="s">
         <v>30</v>
@@ -8267,96 +8271,52 @@
         <v>1</v>
       </c>
       <c r="M208" s="30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="209">
-      <c r="B209" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F209" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G209" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H209" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="J209" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K209" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L209" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
-      <c r="P209" s="3"/>
-      <c r="Q209" s="3"/>
-      <c r="R209" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.95" outlineLevel="0" r="210">
-      <c r="B210" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F210" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G210" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H210" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I210" s="30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="209">
+      <c r="A209" s="15"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="45"/>
+      <c r="G209" s="45"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="45"/>
+      <c r="K209" s="45"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="20"/>
+      <c r="N209" s="22"/>
+      <c r="O209" s="22"/>
+      <c r="P209" s="22"/>
+      <c r="Q209" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="210">
+      <c r="B210" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="J210" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K210" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L210" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="M210" s="30" t="s">
+      <c r="F210" s="46"/>
+      <c r="G210" s="46"/>
+      <c r="J210" s="46"/>
+      <c r="K210" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="211">
+      <c r="B211" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="N210" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="211">
-      <c r="B211" s="2" t="s">
+      <c r="F211" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G211" s="47" t="n">
+        <v>41338.6326388889</v>
+      </c>
+      <c r="H211" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" s="30" t="s">
         <v>480</v>
-      </c>
-      <c r="F211" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G211" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H211" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" s="30" t="s">
-        <v>476</v>
       </c>
       <c r="J211" s="27" t="s">
         <v>30</v>
@@ -8371,40 +8331,58 @@
         <v>1</v>
       </c>
       <c r="M211" s="30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="212">
-      <c r="A212" s="15"/>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="45"/>
-      <c r="G212" s="45"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="20"/>
-      <c r="J212" s="45"/>
-      <c r="K212" s="45"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="20"/>
-      <c r="N212" s="22"/>
-      <c r="O212" s="22"/>
-      <c r="P212" s="22"/>
-      <c r="Q212" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="213">
-      <c r="B213" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="F213" s="46"/>
-      <c r="G213" s="46"/>
-      <c r="J213" s="46"/>
-      <c r="K213" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="212">
+      <c r="B212" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G212" s="47" t="n">
+        <v>41338.6326388889</v>
+      </c>
+      <c r="H212" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="J212" s="27"/>
+      <c r="K212" s="27"/>
+      <c r="L212" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="213">
+      <c r="B213" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G213" s="47" t="n">
+        <v>41338.6326388889</v>
+      </c>
+      <c r="H213" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="J213" s="27"/>
+      <c r="K213" s="27"/>
+      <c r="L213" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="214">
       <c r="B214" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F214" s="27" t="s">
         <v>226</v>
@@ -8416,206 +8394,185 @@
         <v>1</v>
       </c>
       <c r="I214" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="J214" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K214" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="J214" s="27"/>
+      <c r="K214" s="27"/>
       <c r="L214" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M214" s="30" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="215">
-      <c r="B215" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F215" s="27" t="s">
+      <c r="M214" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="215" s="44">
+      <c r="A215" s="48"/>
+      <c r="B215" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="C215" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D215" s="60"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G215" s="47" t="n">
+      <c r="G215" s="51" t="n">
         <v>41338.6326388889</v>
       </c>
-      <c r="H215" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="J215" s="27"/>
-      <c r="K215" s="27"/>
-      <c r="L215" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="216">
-      <c r="B216" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F216" s="27" t="s">
+      <c r="H215" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" s="42"/>
+      <c r="J215" s="40"/>
+      <c r="K215" s="40"/>
+      <c r="L215" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="216" s="58">
+      <c r="A216" s="39"/>
+      <c r="B216" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="40"/>
+      <c r="G216" s="40"/>
+      <c r="H216" s="52"/>
+      <c r="I216" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="J216" s="40"/>
+      <c r="K216" s="40"/>
+      <c r="L216" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M216" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="217" s="58">
+      <c r="A217" s="39"/>
+      <c r="B217" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="40"/>
+      <c r="G217" s="40"/>
+      <c r="H217" s="52"/>
+      <c r="I217" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J217" s="40"/>
+      <c r="K217" s="40"/>
+      <c r="L217" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="218">
+      <c r="A218" s="15"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="45"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="45"/>
+      <c r="K218" s="45"/>
+      <c r="L218" s="19"/>
+      <c r="M218" s="20"/>
+      <c r="N218" s="22"/>
+      <c r="O218" s="22"/>
+      <c r="P218" s="22"/>
+      <c r="Q218" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="219">
+      <c r="B219" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="C219" s="60"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="46"/>
+      <c r="J219" s="46"/>
+      <c r="K219" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="220">
+      <c r="B220" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F220" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G216" s="47" t="n">
+      <c r="G220" s="47" t="n">
         <v>41338.6326388889</v>
       </c>
-      <c r="H216" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="J216" s="27"/>
-      <c r="K216" s="27"/>
-      <c r="L216" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="217">
-      <c r="B217" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F217" s="27" t="s">
+      <c r="H220" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" s="30"/>
+      <c r="J220" s="27"/>
+      <c r="K220" s="27"/>
+      <c r="L220" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="221">
+      <c r="B221" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F221" s="27"/>
+      <c r="G221" s="27"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="27"/>
+      <c r="K221" s="27"/>
+      <c r="L221" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="222">
+      <c r="B222" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F222" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G217" s="47" t="n">
+      <c r="G222" s="47" t="n">
         <v>41338.6326388889</v>
       </c>
-      <c r="H217" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
-      <c r="L217" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="218" s="44">
-      <c r="A218" s="48"/>
-      <c r="B218" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="C218" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G218" s="51" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H218" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" s="42"/>
-      <c r="J218" s="40"/>
-      <c r="K218" s="40"/>
-      <c r="L218" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="219" s="58">
-      <c r="A219" s="39"/>
-      <c r="B219" s="53" t="s">
-        <v>492</v>
-      </c>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="40"/>
-      <c r="G219" s="40"/>
-      <c r="H219" s="52"/>
-      <c r="I219" s="42" t="s">
-        <v>493</v>
-      </c>
-      <c r="J219" s="40"/>
-      <c r="K219" s="40"/>
-      <c r="L219" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M219" s="42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="220" s="58">
-      <c r="A220" s="39"/>
-      <c r="B220" s="53" t="s">
-        <v>494</v>
-      </c>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="40"/>
-      <c r="G220" s="40"/>
-      <c r="H220" s="52"/>
-      <c r="I220" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J220" s="40"/>
-      <c r="K220" s="40"/>
-      <c r="L220" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="221">
-      <c r="A221" s="15"/>
-      <c r="B221" s="16"/>
-      <c r="C221" s="16"/>
-      <c r="D221" s="16"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="45"/>
-      <c r="G221" s="45"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="20"/>
-      <c r="J221" s="45"/>
-      <c r="K221" s="45"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="20"/>
-      <c r="N221" s="22"/>
-      <c r="O221" s="22"/>
-      <c r="P221" s="22"/>
-      <c r="Q221" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="222">
-      <c r="B222" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="C222" s="60"/>
-      <c r="F222" s="46"/>
-      <c r="G222" s="46"/>
-      <c r="J222" s="46"/>
-      <c r="K222" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="223">
+      <c r="H222" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" s="30"/>
+      <c r="J222" s="27"/>
+      <c r="K222" s="27"/>
+      <c r="L222" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="223">
       <c r="B223" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F223" s="40" t="s">
-        <v>226</v>
+      <c r="F223" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="G223" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H223" s="52" t="n">
+        <v>41338.6666666667</v>
+      </c>
+      <c r="H223" s="21" t="n">
         <v>1</v>
       </c>
       <c r="I223" s="30"/>
@@ -8626,7 +8583,7 @@
       </c>
       <c r="M223" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="142.45" outlineLevel="0" r="224">
       <c r="B224" s="2" t="s">
         <v>497</v>
       </c>
@@ -8639,278 +8596,304 @@
       <c r="L224" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M224" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="225">
+      <c r="M224" s="30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="225">
       <c r="B225" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F225" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G225" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H225" s="52" t="n">
-        <v>1</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="21"/>
       <c r="I225" s="30"/>
       <c r="J225" s="27"/>
       <c r="K225" s="27"/>
       <c r="L225" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M225" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="226">
+      <c r="M225" s="30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="226">
       <c r="B226" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F226" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G226" s="47" t="n">
-        <v>41338.6666666667</v>
-      </c>
-      <c r="H226" s="21" t="n">
-        <v>1</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="F226" s="27"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="21"/>
       <c r="I226" s="30"/>
       <c r="J226" s="27"/>
       <c r="K226" s="27"/>
-      <c r="L226" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="142.45" outlineLevel="0" r="227">
+      <c r="L226" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M226" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="N226" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="227">
       <c r="B227" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="21"/>
+        <v>504</v>
+      </c>
+      <c r="F227" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G227" s="47" t="n">
+        <v>41338.6326388889</v>
+      </c>
+      <c r="H227" s="52" t="n">
+        <v>1</v>
+      </c>
       <c r="I227" s="30"/>
       <c r="J227" s="27"/>
       <c r="K227" s="27"/>
       <c r="L227" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M227" s="30" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="228">
-      <c r="B228" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="21"/>
-      <c r="I228" s="30"/>
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
-      <c r="L228" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" s="30" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="229">
+      <c r="M227" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="228" s="44">
+      <c r="A228" s="48"/>
+      <c r="B228" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D228" s="60"/>
+      <c r="E228" s="60"/>
+      <c r="F228" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G228" s="51" t="n">
+        <v>41338.6326388889</v>
+      </c>
+      <c r="H228" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" s="42"/>
+      <c r="J228" s="40"/>
+      <c r="K228" s="40"/>
+      <c r="L228" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="229">
       <c r="B229" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="21"/>
+        <v>506</v>
+      </c>
+      <c r="F229" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G229" s="47" t="n">
+        <v>41338.6326388889</v>
+      </c>
+      <c r="H229" s="52" t="n">
+        <v>1</v>
+      </c>
       <c r="I229" s="30"/>
       <c r="J229" s="27"/>
       <c r="K229" s="27"/>
-      <c r="L229" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M229" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="N229" s="0" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="230">
-      <c r="B230" s="2" t="s">
+      <c r="L229" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="230" s="58">
+      <c r="A230" s="39"/>
+      <c r="B230" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="F230" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G230" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H230" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" s="30"/>
-      <c r="J230" s="27"/>
-      <c r="K230" s="27"/>
-      <c r="L230" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="231" s="44">
-      <c r="A231" s="48"/>
-      <c r="B231" s="57" t="s">
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="40"/>
+      <c r="G230" s="40"/>
+      <c r="H230" s="52"/>
+      <c r="I230" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="C231" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D231" s="60"/>
-      <c r="E231" s="60"/>
-      <c r="F231" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G231" s="51" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H231" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" s="42"/>
+      <c r="J230" s="40"/>
+      <c r="K230" s="40"/>
+      <c r="L230" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="M230" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="231" s="58">
+      <c r="A231" s="39"/>
+      <c r="B231" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="40"/>
+      <c r="G231" s="40"/>
+      <c r="H231" s="52"/>
+      <c r="I231" s="42" t="s">
+        <v>511</v>
+      </c>
       <c r="J231" s="40"/>
       <c r="K231" s="40"/>
       <c r="L231" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="M231" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="232">
-      <c r="B232" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F232" s="40" t="s">
+      <c r="M231" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="232" s="58">
+      <c r="A232" s="39"/>
+      <c r="B232" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="40"/>
+      <c r="G232" s="40"/>
+      <c r="H232" s="52"/>
+      <c r="I232" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="J232" s="40"/>
+      <c r="K232" s="40"/>
+      <c r="L232" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="233">
+      <c r="A233" s="15"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="62"/>
+      <c r="G233" s="62"/>
+      <c r="H233" s="63"/>
+      <c r="I233" s="64"/>
+      <c r="J233" s="62"/>
+      <c r="K233" s="62"/>
+      <c r="L233" s="63"/>
+      <c r="M233" s="64"/>
+      <c r="N233" s="22"/>
+      <c r="O233" s="22"/>
+      <c r="P233" s="22"/>
+      <c r="Q233" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="234">
+      <c r="B234" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="C234" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="F234" s="27"/>
+      <c r="G234" s="27"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="30"/>
+      <c r="J234" s="27"/>
+      <c r="K234" s="27"/>
+      <c r="L234" s="21"/>
+      <c r="M234" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="235">
+      <c r="B235" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F235" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G232" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H232" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" s="30"/>
-      <c r="J232" s="27"/>
-      <c r="K232" s="27"/>
-      <c r="L232" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="233" s="58">
-      <c r="A233" s="39"/>
-      <c r="B233" s="53" t="s">
-        <v>510</v>
-      </c>
-      <c r="C233" s="33"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="40"/>
-      <c r="G233" s="40"/>
-      <c r="H233" s="52"/>
-      <c r="I233" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="J233" s="40"/>
-      <c r="K233" s="40"/>
-      <c r="L233" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="M233" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="234" s="58">
-      <c r="A234" s="39"/>
-      <c r="B234" s="53" t="s">
-        <v>513</v>
-      </c>
-      <c r="C234" s="33"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="40"/>
-      <c r="G234" s="40"/>
-      <c r="H234" s="52"/>
-      <c r="I234" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="J234" s="40"/>
-      <c r="K234" s="40"/>
-      <c r="L234" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" s="42" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="235" s="58">
-      <c r="A235" s="39"/>
-      <c r="B235" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="C235" s="33"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="40"/>
-      <c r="G235" s="40"/>
-      <c r="H235" s="52"/>
-      <c r="I235" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="J235" s="40"/>
-      <c r="K235" s="40"/>
-      <c r="L235" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" s="42" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="236">
-      <c r="A236" s="15"/>
-      <c r="B236" s="16"/>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="62"/>
-      <c r="G236" s="62"/>
-      <c r="H236" s="63"/>
-      <c r="I236" s="64"/>
-      <c r="J236" s="62"/>
-      <c r="K236" s="62"/>
-      <c r="L236" s="63"/>
-      <c r="M236" s="64"/>
-      <c r="N236" s="22"/>
-      <c r="O236" s="22"/>
-      <c r="P236" s="22"/>
-      <c r="Q236" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="237">
-      <c r="B237" s="37" t="s">
+      <c r="G235" s="47" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H235" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" s="30"/>
+      <c r="J235" s="27"/>
+      <c r="K235" s="27"/>
+      <c r="L235" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33.9" outlineLevel="0" r="236">
+      <c r="B236" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C237" s="37" t="s">
+      <c r="F236" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G236" s="47" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H236" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" s="30"/>
+      <c r="J236" s="27"/>
+      <c r="K236" s="27"/>
+      <c r="L236" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="237" s="44">
+      <c r="A237" s="39"/>
+      <c r="B237" s="53" t="s">
         <v>518</v>
       </c>
-      <c r="F237" s="27"/>
-      <c r="G237" s="27"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="30"/>
-      <c r="J237" s="27"/>
-      <c r="K237" s="27"/>
-      <c r="L237" s="21"/>
-      <c r="M237" s="30"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G237" s="51" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H237" s="52" t="n">
+        <v>9</v>
+      </c>
+      <c r="I237" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="J237" s="40"/>
+      <c r="K237" s="40"/>
+      <c r="L237" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M237" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="N237" s="44" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="238">
       <c r="B238" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>226</v>
@@ -8924,7 +8907,9 @@
       <c r="H238" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I238" s="30"/>
+      <c r="I238" s="30" t="s">
+        <v>522</v>
+      </c>
       <c r="J238" s="27"/>
       <c r="K238" s="27"/>
       <c r="L238" s="21" t="n">
@@ -8932,9 +8917,9 @@
       </c>
       <c r="M238" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33.9" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="100.6" outlineLevel="0" r="239">
       <c r="B239" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>226</v>
@@ -8946,155 +8931,144 @@
         </is>
       </c>
       <c r="H239" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="I239" s="30" t="s">
+        <v>524</v>
+      </c>
       <c r="J239" s="27"/>
       <c r="K239" s="27"/>
       <c r="L239" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M239" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="240" s="44">
-      <c r="A240" s="39"/>
-      <c r="B240" s="53" t="s">
-        <v>521</v>
-      </c>
-      <c r="C240" s="33"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="40" t="s">
+      <c r="M239" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="N239" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="240">
+      <c r="B240" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F240" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G240" s="51" t="inlineStr">
+      <c r="G240" s="47" t="inlineStr">
         <f aca="true">NOW()</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H240" s="52" t="n">
+      <c r="H240" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="I240" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="J240" s="40"/>
-      <c r="K240" s="40"/>
-      <c r="L240" s="52" t="s">
+      <c r="I240" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="J240" s="27"/>
+      <c r="K240" s="27"/>
+      <c r="L240" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M240" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="N240" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="241">
-      <c r="B241" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F241" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G241" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H241" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="J241" s="27"/>
-      <c r="K241" s="27"/>
-      <c r="L241" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="100.6" outlineLevel="0" r="242">
-      <c r="B242" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F242" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G242" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H242" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" s="30" t="s">
+      <c r="M240" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="241">
+      <c r="A241" s="15"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="62"/>
+      <c r="G241" s="62"/>
+      <c r="H241" s="63"/>
+      <c r="I241" s="64"/>
+      <c r="J241" s="62"/>
+      <c r="K241" s="62"/>
+      <c r="L241" s="63"/>
+      <c r="M241" s="64"/>
+      <c r="N241" s="22"/>
+      <c r="O241" s="22"/>
+      <c r="P241" s="22"/>
+      <c r="Q241" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="242">
+      <c r="B242" s="37" t="s">
         <v>527</v>
       </c>
+      <c r="F242" s="27"/>
+      <c r="G242" s="27"/>
+      <c r="H242" s="21"/>
+      <c r="I242" s="30"/>
       <c r="J242" s="27"/>
       <c r="K242" s="27"/>
-      <c r="L242" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" s="30" t="s">
+      <c r="L242" s="21"/>
+      <c r="M242" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="243">
+      <c r="B243" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="N242" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="243">
-      <c r="B243" s="2" t="s">
+      <c r="C243" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="F243" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G243" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H243" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I243" s="30" t="s">
-        <v>527</v>
-      </c>
+      <c r="E243" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="F243" s="27"/>
+      <c r="G243" s="27"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="30"/>
       <c r="J243" s="27"/>
       <c r="K243" s="27"/>
       <c r="L243" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M243" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="244">
-      <c r="A244" s="15"/>
-      <c r="B244" s="16"/>
-      <c r="C244" s="16"/>
-      <c r="D244" s="16"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="62"/>
-      <c r="G244" s="62"/>
-      <c r="H244" s="63"/>
-      <c r="I244" s="64"/>
-      <c r="J244" s="62"/>
-      <c r="K244" s="62"/>
-      <c r="L244" s="63"/>
-      <c r="M244" s="64"/>
-      <c r="N244" s="22"/>
-      <c r="O244" s="22"/>
-      <c r="P244" s="22"/>
-      <c r="Q244" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="245">
-      <c r="B245" s="37" t="s">
+      <c r="M243" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="244">
+      <c r="B244" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="C244" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="E244" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="F244" s="27"/>
+      <c r="G244" s="27"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="27"/>
+      <c r="K244" s="27"/>
+      <c r="L244" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M244" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="245">
+      <c r="B245" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="C245" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="E245" s="26" t="s">
         <v>530</v>
       </c>
       <c r="F245" s="27"/>
@@ -9103,21 +9077,25 @@
       <c r="I245" s="30"/>
       <c r="J245" s="27"/>
       <c r="K245" s="27"/>
-      <c r="L245" s="21"/>
-      <c r="M245" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="246">
+      <c r="L245" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M245" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="246">
       <c r="B246" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C246" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E246" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F246" s="27"/>
       <c r="G246" s="27"/>
@@ -9129,21 +9107,21 @@
         <v>66</v>
       </c>
       <c r="M246" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="247">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="247">
       <c r="B247" s="25" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C247" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E247" s="26" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F247" s="27"/>
       <c r="G247" s="27"/>
@@ -9155,10 +9133,10 @@
         <v>66</v>
       </c>
       <c r="M247" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="248">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="248">
       <c r="B248" s="25" t="s">
         <v>538</v>
       </c>
@@ -9166,10 +9144,10 @@
         <v>36</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E248" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F248" s="27"/>
       <c r="G248" s="27"/>
@@ -9181,10 +9159,10 @@
         <v>66</v>
       </c>
       <c r="M248" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="249">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="249">
       <c r="B249" s="25" t="s">
         <v>539</v>
       </c>
@@ -9192,10 +9170,10 @@
         <v>36</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E249" s="26" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F249" s="27"/>
       <c r="G249" s="27"/>
@@ -9207,7 +9185,7 @@
         <v>66</v>
       </c>
       <c r="M249" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="250">
@@ -9218,10 +9196,10 @@
         <v>36</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F250" s="27"/>
       <c r="G250" s="27"/>
@@ -9233,7 +9211,7 @@
         <v>66</v>
       </c>
       <c r="M250" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="251">
@@ -9244,10 +9222,10 @@
         <v>36</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E251" s="26" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F251" s="27"/>
       <c r="G251" s="27"/>
@@ -9259,7 +9237,7 @@
         <v>66</v>
       </c>
       <c r="M251" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="252">
@@ -9270,10 +9248,10 @@
         <v>36</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E252" s="26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F252" s="27"/>
       <c r="G252" s="27"/>
@@ -9285,10 +9263,10 @@
         <v>66</v>
       </c>
       <c r="M252" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="253">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="253">
       <c r="B253" s="25" t="s">
         <v>543</v>
       </c>
@@ -9296,10 +9274,10 @@
         <v>36</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E253" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F253" s="27"/>
       <c r="G253" s="27"/>
@@ -9311,10 +9289,10 @@
         <v>66</v>
       </c>
       <c r="M253" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="254">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="254">
       <c r="B254" s="25" t="s">
         <v>544</v>
       </c>
@@ -9322,10 +9300,10 @@
         <v>36</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E254" s="26" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F254" s="27"/>
       <c r="G254" s="27"/>
@@ -9337,47 +9315,31 @@
         <v>66</v>
       </c>
       <c r="M254" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="255">
-      <c r="B255" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C255" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D255" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="E255" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="30"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
-      <c r="L255" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M255" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="256">
-      <c r="B256" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C256" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D256" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E256" s="26" t="s">
-        <v>537</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="255">
+      <c r="A255" s="15"/>
+      <c r="B255" s="16"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="62"/>
+      <c r="G255" s="62"/>
+      <c r="H255" s="63"/>
+      <c r="I255" s="64"/>
+      <c r="J255" s="62"/>
+      <c r="K255" s="62"/>
+      <c r="L255" s="63"/>
+      <c r="M255" s="64"/>
+      <c r="N255" s="22"/>
+      <c r="O255" s="22"/>
+      <c r="P255" s="22"/>
+      <c r="Q255" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="256">
+      <c r="B256" s="23" t="s">
+        <v>547</v>
       </c>
       <c r="F256" s="27"/>
       <c r="G256" s="27"/>
@@ -9385,89 +9347,111 @@
       <c r="I256" s="30"/>
       <c r="J256" s="27"/>
       <c r="K256" s="27"/>
-      <c r="L256" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M256" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="257">
+      <c r="L256" s="21"/>
+      <c r="M256" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="257">
       <c r="B257" s="25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C257" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E257" s="26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F257" s="27"/>
       <c r="G257" s="27"/>
       <c r="H257" s="21"/>
-      <c r="I257" s="30"/>
+      <c r="I257" s="30" t="s">
+        <v>551</v>
+      </c>
       <c r="J257" s="27"/>
       <c r="K257" s="27"/>
       <c r="L257" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M257" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="258">
-      <c r="A258" s="15"/>
-      <c r="B258" s="16"/>
-      <c r="C258" s="16"/>
-      <c r="D258" s="16"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="62"/>
-      <c r="G258" s="62"/>
-      <c r="H258" s="63"/>
-      <c r="I258" s="64"/>
-      <c r="J258" s="62"/>
-      <c r="K258" s="62"/>
-      <c r="L258" s="63"/>
-      <c r="M258" s="64"/>
-      <c r="N258" s="22"/>
-      <c r="O258" s="22"/>
-      <c r="P258" s="22"/>
-      <c r="Q258" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="259">
-      <c r="B259" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="258">
+      <c r="B258" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="C258" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D258" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="E258" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="F258" s="27"/>
+      <c r="G258" s="27"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="J258" s="27"/>
+      <c r="K258" s="27"/>
+      <c r="L258" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M258" s="30" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="259">
+      <c r="B259" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="C259" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D259" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="E259" s="26" t="s">
+        <v>557</v>
       </c>
       <c r="F259" s="27"/>
       <c r="G259" s="27"/>
       <c r="H259" s="21"/>
-      <c r="I259" s="30"/>
+      <c r="I259" s="30" t="s">
+        <v>551</v>
+      </c>
       <c r="J259" s="27"/>
       <c r="K259" s="27"/>
-      <c r="L259" s="21"/>
-      <c r="M259" s="30"/>
+      <c r="L259" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M259" s="30" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="260">
       <c r="B260" s="25" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C260" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E260" s="26" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
       <c r="H260" s="21"/>
       <c r="I260" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J260" s="27"/>
       <c r="K260" s="27"/>
@@ -9475,27 +9459,27 @@
         <v>66</v>
       </c>
       <c r="M260" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="261">
       <c r="B261" s="25" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C261" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E261" s="26" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F261" s="27"/>
       <c r="G261" s="27"/>
       <c r="H261" s="21"/>
       <c r="I261" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J261" s="27"/>
       <c r="K261" s="27"/>
@@ -9503,27 +9487,27 @@
         <v>66</v>
       </c>
       <c r="M261" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="262">
       <c r="B262" s="25" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C262" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E262" s="26" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F262" s="27"/>
       <c r="G262" s="27"/>
       <c r="H262" s="21"/>
       <c r="I262" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J262" s="27"/>
       <c r="K262" s="27"/>
@@ -9531,55 +9515,55 @@
         <v>66</v>
       </c>
       <c r="M262" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="263">
       <c r="B263" s="25" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C263" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F263" s="27"/>
       <c r="G263" s="27"/>
       <c r="H263" s="21"/>
-      <c r="I263" s="30" t="s">
-        <v>554</v>
+      <c r="I263" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="J263" s="27"/>
       <c r="K263" s="27"/>
       <c r="L263" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M263" s="30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="264">
+      <c r="M263" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="264">
       <c r="B264" s="25" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C264" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E264" s="26" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F264" s="27"/>
       <c r="G264" s="27"/>
       <c r="H264" s="21"/>
       <c r="I264" s="30" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="J264" s="27"/>
       <c r="K264" s="27"/>
@@ -9587,27 +9571,27 @@
         <v>66</v>
       </c>
       <c r="M264" s="30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="265">
+        <v>573</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="265">
       <c r="B265" s="25" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C265" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E265" s="26" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F265" s="27"/>
       <c r="G265" s="27"/>
       <c r="H265" s="21"/>
       <c r="I265" s="30" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="J265" s="27"/>
       <c r="K265" s="27"/>
@@ -9615,129 +9599,138 @@
         <v>66</v>
       </c>
       <c r="M265" s="30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="266">
-      <c r="B266" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="C266" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D266" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="E266" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="F266" s="27"/>
-      <c r="G266" s="27"/>
-      <c r="H266" s="21"/>
-      <c r="I266" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J266" s="27"/>
-      <c r="K266" s="27"/>
-      <c r="L266" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M266" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="267">
-      <c r="B267" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="C267" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D267" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="E267" s="26" t="s">
-        <v>575</v>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="266">
+      <c r="A266" s="15"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="16"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="62"/>
+      <c r="G266" s="62"/>
+      <c r="H266" s="63"/>
+      <c r="I266" s="64"/>
+      <c r="J266" s="62"/>
+      <c r="K266" s="62"/>
+      <c r="L266" s="63"/>
+      <c r="M266" s="64"/>
+      <c r="N266" s="22"/>
+      <c r="O266" s="22"/>
+      <c r="P266" s="22"/>
+      <c r="Q266" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="267">
+      <c r="B267" s="23" t="s">
+        <v>577</v>
       </c>
       <c r="F267" s="27"/>
       <c r="G267" s="27"/>
       <c r="H267" s="21"/>
-      <c r="I267" s="30" t="s">
-        <v>576</v>
-      </c>
+      <c r="I267" s="30"/>
       <c r="J267" s="27"/>
       <c r="K267" s="27"/>
-      <c r="L267" s="21" t="s">
+      <c r="L267" s="21"/>
+      <c r="M267" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="19.2" outlineLevel="0" r="268" s="44">
+      <c r="A268" s="39"/>
+      <c r="B268" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="C268" s="33"/>
+      <c r="D268" s="60"/>
+      <c r="E268" s="60"/>
+      <c r="F268" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G268" s="51" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H268" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="J268" s="40"/>
+      <c r="K268" s="40"/>
+      <c r="L268" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" s="42" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.85" outlineLevel="0" r="269" s="44">
+      <c r="A269" s="39"/>
+      <c r="B269" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="C269" s="33"/>
+      <c r="D269" s="60"/>
+      <c r="E269" s="60"/>
+      <c r="F269" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G269" s="51" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H269" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" s="42"/>
+      <c r="J269" s="40"/>
+      <c r="K269" s="40"/>
+      <c r="L269" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.15" outlineLevel="0" r="270" s="44">
+      <c r="A270" s="39"/>
+      <c r="B270" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="C270" s="33"/>
+      <c r="D270" s="60"/>
+      <c r="E270" s="60"/>
+      <c r="F270" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G270" s="51" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H270" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" s="42"/>
+      <c r="J270" s="40"/>
+      <c r="K270" s="40"/>
+      <c r="L270" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="M267" s="30" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="268">
-      <c r="B268" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C268" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D268" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="E268" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="F268" s="27"/>
-      <c r="G268" s="27"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="J268" s="27"/>
-      <c r="K268" s="27"/>
-      <c r="L268" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M268" s="30" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="269">
-      <c r="A269" s="15"/>
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="62"/>
-      <c r="G269" s="62"/>
-      <c r="H269" s="63"/>
-      <c r="I269" s="64"/>
-      <c r="J269" s="62"/>
-      <c r="K269" s="62"/>
-      <c r="L269" s="63"/>
-      <c r="M269" s="64"/>
-      <c r="N269" s="22"/>
-      <c r="O269" s="22"/>
-      <c r="P269" s="22"/>
-      <c r="Q269" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="270">
-      <c r="B270" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="F270" s="27"/>
-      <c r="G270" s="27"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="30"/>
-      <c r="J270" s="27"/>
-      <c r="K270" s="27"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="19.2" outlineLevel="0" r="271" s="44">
+      <c r="M270" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="N270" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="271" s="44">
       <c r="A271" s="39"/>
       <c r="B271" s="53" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C271" s="33"/>
       <c r="D271" s="60"/>
@@ -9755,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="42" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J271" s="40"/>
       <c r="K271" s="40"/>
@@ -9763,76 +9756,49 @@
         <v>1</v>
       </c>
       <c r="M271" s="42" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.85" outlineLevel="0" r="272" s="44">
-      <c r="A272" s="39"/>
-      <c r="B272" s="53" t="s">
-        <v>583</v>
-      </c>
-      <c r="C272" s="33"/>
-      <c r="D272" s="60"/>
-      <c r="E272" s="60"/>
-      <c r="F272" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G272" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H272" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" s="42"/>
-      <c r="J272" s="40"/>
-      <c r="K272" s="40"/>
-      <c r="L272" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.15" outlineLevel="0" r="273" s="44">
-      <c r="A273" s="39"/>
-      <c r="B273" s="53" t="s">
-        <v>584</v>
-      </c>
-      <c r="C273" s="33"/>
-      <c r="D273" s="60"/>
-      <c r="E273" s="60"/>
-      <c r="F273" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G273" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H273" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" s="42"/>
-      <c r="J273" s="40"/>
-      <c r="K273" s="40"/>
-      <c r="L273" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M273" s="42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="272">
+      <c r="A272" s="15"/>
+      <c r="B272" s="16"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="16"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="62"/>
+      <c r="G272" s="62"/>
+      <c r="H272" s="63"/>
+      <c r="I272" s="64"/>
+      <c r="J272" s="62"/>
+      <c r="K272" s="62"/>
+      <c r="L272" s="63"/>
+      <c r="M272" s="64"/>
+      <c r="N272" s="22"/>
+      <c r="O272" s="22"/>
+      <c r="P272" s="22"/>
+      <c r="Q272" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="273">
+      <c r="B273" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="N273" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="274" s="44">
-      <c r="A274" s="39"/>
-      <c r="B274" s="53" t="s">
+      <c r="F273" s="27"/>
+      <c r="G273" s="27"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="30"/>
+      <c r="J273" s="27"/>
+      <c r="K273" s="27"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="274" s="44">
+      <c r="A274" s="48"/>
+      <c r="B274" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="C274" s="33"/>
+      <c r="C274" s="59" t="s">
+        <v>462</v>
+      </c>
       <c r="D274" s="60"/>
       <c r="E274" s="60"/>
       <c r="F274" s="40" t="s">
@@ -9855,49 +9821,82 @@
       <c r="L274" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="M274" s="42" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="275">
-      <c r="A275" s="15"/>
-      <c r="B275" s="16"/>
-      <c r="C275" s="16"/>
-      <c r="D275" s="16"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="62"/>
-      <c r="G275" s="62"/>
-      <c r="H275" s="63"/>
-      <c r="I275" s="64"/>
-      <c r="J275" s="62"/>
-      <c r="K275" s="62"/>
-      <c r="L275" s="63"/>
-      <c r="M275" s="64"/>
-      <c r="N275" s="22"/>
-      <c r="O275" s="22"/>
-      <c r="P275" s="22"/>
-      <c r="Q275" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="276">
-      <c r="B276" s="23" t="s">
+      <c r="M274" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="275" s="44">
+      <c r="A275" s="48"/>
+      <c r="B275" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="F276" s="27"/>
-      <c r="G276" s="27"/>
-      <c r="H276" s="21"/>
-      <c r="I276" s="30"/>
-      <c r="J276" s="27"/>
-      <c r="K276" s="27"/>
-      <c r="L276" s="21"/>
-      <c r="M276" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="277" s="44">
+      <c r="C275" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D275" s="60"/>
+      <c r="E275" s="60"/>
+      <c r="F275" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G275" s="51" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H275" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="J275" s="40"/>
+      <c r="K275" s="40"/>
+      <c r="L275" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" s="42"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="276" s="44">
+      <c r="A276" s="48"/>
+      <c r="B276" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="C276" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D276" s="60"/>
+      <c r="E276" s="60"/>
+      <c r="F276" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G276" s="51" t="inlineStr">
+        <f aca="true">NOW()</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H276" s="52" t="n">
+        <v>9</v>
+      </c>
+      <c r="I276" s="42"/>
+      <c r="J276" s="40"/>
+      <c r="K276" s="40"/>
+      <c r="L276" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="N276" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.05" outlineLevel="0" r="277" s="44">
       <c r="A277" s="48"/>
       <c r="B277" s="57" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C277" s="59" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D277" s="60"/>
       <c r="E277" s="60"/>
@@ -9911,139 +9910,70 @@
         </is>
       </c>
       <c r="H277" s="52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" s="42" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J277" s="40"/>
       <c r="K277" s="40"/>
-      <c r="L277" s="52" t="n">
-        <v>1</v>
+      <c r="L277" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="M277" s="42"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="278" s="44">
       <c r="A278" s="48"/>
       <c r="B278" s="57" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C278" s="59" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D278" s="60"/>
       <c r="E278" s="60"/>
-      <c r="F278" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G278" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H278" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" s="42" t="s">
-        <v>590</v>
-      </c>
+      <c r="F278" s="40"/>
+      <c r="G278" s="40"/>
+      <c r="H278" s="52"/>
+      <c r="I278" s="42"/>
       <c r="J278" s="40"/>
       <c r="K278" s="40"/>
-      <c r="L278" s="52" t="n">
-        <v>1</v>
+      <c r="L278" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="M278" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="279" s="44">
-      <c r="A279" s="48"/>
-      <c r="B279" s="57" t="s">
-        <v>592</v>
-      </c>
-      <c r="C279" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D279" s="60"/>
-      <c r="E279" s="60"/>
-      <c r="F279" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G279" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H279" s="52" t="n">
-        <v>9</v>
-      </c>
-      <c r="I279" s="42"/>
-      <c r="J279" s="40"/>
-      <c r="K279" s="40"/>
-      <c r="L279" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" s="42" t="s">
-        <v>593</v>
-      </c>
-      <c r="N279" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.05" outlineLevel="0" r="280" s="44">
-      <c r="A280" s="48"/>
-      <c r="B280" s="57" t="s">
-        <v>594</v>
-      </c>
-      <c r="C280" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D280" s="60"/>
-      <c r="E280" s="60"/>
-      <c r="F280" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G280" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H280" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" s="42" t="s">
-        <v>595</v>
-      </c>
-      <c r="J280" s="40"/>
-      <c r="K280" s="40"/>
-      <c r="L280" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M280" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="281" s="44">
-      <c r="A281" s="48"/>
-      <c r="B281" s="57" t="s">
-        <v>596</v>
-      </c>
-      <c r="C281" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D281" s="60"/>
-      <c r="E281" s="60"/>
-      <c r="F281" s="40"/>
-      <c r="G281" s="40"/>
-      <c r="H281" s="52"/>
-      <c r="I281" s="42"/>
-      <c r="J281" s="40"/>
-      <c r="K281" s="40"/>
-      <c r="L281" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="M281" s="42"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="279">
+      <c r="F279" s="27"/>
+      <c r="G279" s="27"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="27"/>
+      <c r="K279" s="27"/>
+      <c r="L279" s="21"/>
+      <c r="M279" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="280">
+      <c r="F280" s="27"/>
+      <c r="G280" s="27"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="30"/>
+      <c r="J280" s="27"/>
+      <c r="K280" s="27"/>
+      <c r="L280" s="21"/>
+      <c r="M280" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="281">
+      <c r="F281" s="27"/>
+      <c r="G281" s="27"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="30"/>
+      <c r="J281" s="27"/>
+      <c r="K281" s="27"/>
+      <c r="L281" s="21"/>
+      <c r="M281" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="282">
       <c r="F282" s="27"/>
       <c r="G282" s="27"/>
       <c r="H282" s="21"/>
@@ -10053,35 +9983,62 @@
       <c r="L282" s="21"/>
       <c r="M282" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="283">
-      <c r="F283" s="27"/>
-      <c r="G283" s="27"/>
-      <c r="H283" s="21"/>
-      <c r="I283" s="30"/>
-      <c r="J283" s="27"/>
-      <c r="K283" s="27"/>
-      <c r="L283" s="21"/>
-      <c r="M283" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="284">
-      <c r="F284" s="27"/>
-      <c r="G284" s="27"/>
-      <c r="H284" s="21"/>
-      <c r="I284" s="30"/>
-      <c r="J284" s="27"/>
-      <c r="K284" s="27"/>
-      <c r="L284" s="21"/>
-      <c r="M284" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="285">
-      <c r="F285" s="27"/>
-      <c r="G285" s="27"/>
-      <c r="H285" s="21"/>
-      <c r="I285" s="30"/>
-      <c r="J285" s="27"/>
-      <c r="K285" s="27"/>
-      <c r="L285" s="21"/>
-      <c r="M285" s="30"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="283">
+      <c r="A283" s="15"/>
+      <c r="B283" s="16"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="65"/>
+      <c r="G283" s="65"/>
+      <c r="H283" s="19"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="65"/>
+      <c r="K283" s="65"/>
+      <c r="L283" s="19"/>
+      <c r="M283" s="20"/>
+      <c r="N283" s="22"/>
+      <c r="O283" s="22"/>
+      <c r="P283" s="22"/>
+      <c r="Q283" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="284">
+      <c r="A284" s="15"/>
+      <c r="B284" s="16"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="66"/>
+      <c r="G284" s="66"/>
+      <c r="H284" s="67"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="66"/>
+      <c r="K284" s="66"/>
+      <c r="L284" s="67"/>
+      <c r="M284" s="20"/>
+      <c r="N284" s="22"/>
+      <c r="O284" s="22"/>
+      <c r="P284" s="22"/>
+      <c r="Q284" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="285">
+      <c r="A285" s="15"/>
+      <c r="B285" s="16"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="66"/>
+      <c r="G285" s="66"/>
+      <c r="H285" s="67"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="66"/>
+      <c r="K285" s="66"/>
+      <c r="L285" s="67"/>
+      <c r="M285" s="20"/>
+      <c r="N285" s="22"/>
+      <c r="O285" s="22"/>
+      <c r="P285" s="22"/>
+      <c r="Q285" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="286">
       <c r="A286" s="15"/>
@@ -10089,75 +10046,18 @@
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
-      <c r="F286" s="65"/>
-      <c r="G286" s="65"/>
-      <c r="H286" s="19"/>
+      <c r="F286" s="66"/>
+      <c r="G286" s="66"/>
+      <c r="H286" s="67"/>
       <c r="I286" s="20"/>
-      <c r="J286" s="65"/>
-      <c r="K286" s="65"/>
-      <c r="L286" s="19"/>
+      <c r="J286" s="66"/>
+      <c r="K286" s="66"/>
+      <c r="L286" s="67"/>
       <c r="M286" s="20"/>
       <c r="N286" s="22"/>
       <c r="O286" s="22"/>
       <c r="P286" s="22"/>
       <c r="Q286" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="287">
-      <c r="A287" s="15"/>
-      <c r="B287" s="16"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="66"/>
-      <c r="G287" s="66"/>
-      <c r="H287" s="67"/>
-      <c r="I287" s="20"/>
-      <c r="J287" s="66"/>
-      <c r="K287" s="66"/>
-      <c r="L287" s="67"/>
-      <c r="M287" s="20"/>
-      <c r="N287" s="22"/>
-      <c r="O287" s="22"/>
-      <c r="P287" s="22"/>
-      <c r="Q287" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="288">
-      <c r="A288" s="15"/>
-      <c r="B288" s="16"/>
-      <c r="C288" s="16"/>
-      <c r="D288" s="16"/>
-      <c r="E288" s="16"/>
-      <c r="F288" s="66"/>
-      <c r="G288" s="66"/>
-      <c r="H288" s="67"/>
-      <c r="I288" s="20"/>
-      <c r="J288" s="66"/>
-      <c r="K288" s="66"/>
-      <c r="L288" s="67"/>
-      <c r="M288" s="20"/>
-      <c r="N288" s="22"/>
-      <c r="O288" s="22"/>
-      <c r="P288" s="22"/>
-      <c r="Q288" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="289">
-      <c r="A289" s="15"/>
-      <c r="B289" s="16"/>
-      <c r="C289" s="16"/>
-      <c r="D289" s="16"/>
-      <c r="E289" s="16"/>
-      <c r="F289" s="66"/>
-      <c r="G289" s="66"/>
-      <c r="H289" s="67"/>
-      <c r="I289" s="20"/>
-      <c r="J289" s="66"/>
-      <c r="K289" s="66"/>
-      <c r="L289" s="67"/>
-      <c r="M289" s="20"/>
-      <c r="N289" s="22"/>
-      <c r="O289" s="22"/>
-      <c r="P289" s="22"/>
-      <c r="Q289" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/usefulTools/UAT Current Requirements.xlsx
+++ b/usefulTools/UAT Current Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="217" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="168" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="UAT Items List" sheetId="1" state="visible" r:id="rId2"/>
@@ -2338,27 +2338,27 @@
   </sheetPr>
   <dimension ref="A1:R286"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A106" view="normal" windowProtection="false" workbookViewId="0" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100">
-      <selection activeCell="E114" activeCellId="0" pane="topLeft" sqref="E114"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100">
+      <selection activeCell="I77" activeCellId="0" pane="topLeft" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.46274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.9882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="43.8705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="33.7333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="1.90588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.32549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="36.9725490196078"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="17.5764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.32549019607843"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="36.9725490196078"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.1372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="7" width="9.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.49019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.1254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="44.0509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.3058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="33.8745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.9647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.35294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="37.1254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.35294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="37.1254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2039215686275"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="7" width="9.64313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.95" outlineLevel="0" r="1">
@@ -10080,12 +10080,12 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
